--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a25_reformulation.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a25_reformulation.xlsx
@@ -446,7 +446,7 @@
         <v>0.4244266634078455</v>
       </c>
       <c r="D2">
-        <v>3649.278685306</v>
+        <v>3671.16128473</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -469,10 +469,10 @@
         <v>-293.6522274592591</v>
       </c>
       <c r="C3">
-        <v>0.353233171331793</v>
+        <v>0.3524663646928933</v>
       </c>
       <c r="D3">
-        <v>3784.072484771</v>
+        <v>3623.585527484</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -498,7 +498,7 @@
         <v>0.31692590516112656</v>
       </c>
       <c r="D4">
-        <v>3779.639728366</v>
+        <v>3675.185769438</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -521,10 +521,10 @@
         <v>-310.50261633648716</v>
       </c>
       <c r="C5">
-        <v>0.4258176801541996</v>
+        <v>0.42494411658262016</v>
       </c>
       <c r="D5">
-        <v>3621.845954257</v>
+        <v>3620.7815772</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
         <v>0.39179182817830627</v>
       </c>
       <c r="D6">
-        <v>3708.941600919</v>
+        <v>3625.439816565</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -576,7 +576,7 @@
         <v>0.40357490914846783</v>
       </c>
       <c r="D7">
-        <v>3621.009256664</v>
+        <v>3621.975197309</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -599,10 +599,10 @@
         <v>-288.93515738348276</v>
       </c>
       <c r="C8">
-        <v>0.4603222359482077</v>
+        <v>0.46065307544108214</v>
       </c>
       <c r="D8">
-        <v>3624.275152315</v>
+        <v>3628.08236608</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-296.76075650577747</v>
+        <v>-296.7607524218697</v>
       </c>
       <c r="C9">
-        <v>0.45679958266445003</v>
+        <v>0.4568009651124302</v>
       </c>
       <c r="D9">
-        <v>3621.466661796</v>
+        <v>3622.792508465</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -654,7 +654,7 @@
         <v>0.4347024275434509</v>
       </c>
       <c r="D10">
-        <v>3650.531381032</v>
+        <v>3624.029671429</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -680,7 +680,7 @@
         <v>0.44169480939691425</v>
       </c>
       <c r="D11">
-        <v>3661.626623669</v>
+        <v>3716.806027163</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
